--- a/biology/Botanique/Glamis_Castle/Glamis_Castle.xlsx
+++ b/biology/Botanique/Glamis_Castle/Glamis_Castle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Glamis Castle' (AUSlevel, nom de l'obtention enregistrée), est un cultivar de rosier créé en Angleterre en 1992 par David Austin[1],[2]. Il doit son nom au château de Glamis en Angleterre.
+'Glamis Castle' (AUSlevel, nom de l'obtention enregistrée), est un cultivar de rosier créé en Angleterre en 1992 par David Austin,. Il doit son nom au château de Glamis en Angleterre.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Glamis Castle' est une rose moderne du groupe « English Rose Collection »[3]. Elle est issue du croisement 'Graham Thomas' ® x 'Mary Rose' ®[4]. 
-Les formes arbustives de ce cultivar plutôt prolifique peuvent atteindre plus de 90 à 120 cm de hauteur et 60 à 120 cm de largeur. Les feuilles sont de couleur vert obscur et mates et sont de taille moyenne[1]. 
-Ses fleurs sont d'un blanc délicat à nuance crème avec un parfum léger de myrrhe. Son diamètre moyen est de 2,5". Cette rose moyenne (41 + pétales) se présente en petits groupes en forme de coupe[1]. 
-Ce cultivar vigoureux peut toutefois être sensible au mildiou[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Glamis Castle' est une rose moderne du groupe « English Rose Collection ». Elle est issue du croisement 'Graham Thomas' ® x 'Mary Rose' ®. 
+Les formes arbustives de ce cultivar plutôt prolifique peuvent atteindre plus de 90 à 120 cm de hauteur et 60 à 120 cm de largeur. Les feuilles sont de couleur vert obscur et mates et sont de taille moyenne. 
+Ses fleurs sont d'un blanc délicat à nuance crème avec un parfum léger de myrrhe. Son diamètre moyen est de 2,5". Cette rose moyenne (41 + pétales) se présente en petits groupes en forme de coupe. 
+Ce cultivar vigoureux peut toutefois être sensible au mildiou.
 </t>
         </is>
       </c>
